--- a/src/data/cards.xlsx
+++ b/src/data/cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsbch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsbch\Music\testproject\onmyojigame-paper-role-main\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C003F30-4507-4741-BEAD-FF4F2DA37DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713578CD-646D-4685-B790-553B7972B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H113" sqref="H94:H113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/data/cards.xlsx
+++ b/src/data/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsbch\Music\testproject\onmyojigame-paper-role-main\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713578CD-646D-4685-B790-553B7972B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70452754-4DB3-49A6-AF30-FD3A86EA7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>skinpoint</t>
+  </si>
+  <si>
+    <t>unknow</t>
   </si>
 </sst>
 </file>
@@ -804,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -841,36 +844,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -887,13 +890,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -910,13 +913,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -933,36 +936,36 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -979,33 +982,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1014,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1025,10 +1028,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1037,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1048,10 +1051,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1063,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1071,10 +1074,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1086,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1094,10 +1097,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1109,7 +1112,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1117,10 +1120,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1140,10 +1143,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1155,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1163,10 +1166,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1186,10 +1189,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1209,10 +1212,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1221,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1232,10 +1235,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1244,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1255,10 +1258,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1278,10 +1281,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1290,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1301,10 +1304,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1324,10 +1327,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1336,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1347,10 +1350,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1359,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1370,10 +1373,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1393,10 +1396,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1405,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1416,10 +1419,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1428,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1439,10 +1442,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1451,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1462,10 +1465,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1485,10 +1488,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1497,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1508,10 +1511,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1520,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1531,39 +1534,39 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1577,45 +1580,45 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -1623,10 +1626,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1635,10 +1638,10 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1646,10 +1649,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1669,10 +1672,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1681,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1692,10 +1695,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1704,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1715,10 +1718,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -1738,10 +1741,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1761,10 +1764,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -1784,10 +1787,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1807,10 +1810,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1830,10 +1833,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -1853,10 +1856,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -1868,7 +1871,7 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -1876,19 +1879,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1899,22 +1902,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -1922,10 +1925,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -1968,10 +1971,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -1991,10 +1994,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -2003,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2014,10 +2017,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2037,10 +2040,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -2060,10 +2063,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -2072,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2083,10 +2086,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -2098,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -2106,10 +2109,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2118,10 +2121,10 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -2129,10 +2132,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2141,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2152,22 +2155,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -2175,10 +2178,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -2190,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -2221,56 +2224,56 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2282,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -2290,10 +2293,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -2305,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -2313,10 +2316,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2336,10 +2339,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -2359,10 +2362,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -2374,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -2382,10 +2385,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -2397,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -2405,10 +2408,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2428,10 +2431,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -2440,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2451,10 +2454,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -2474,10 +2477,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -2497,10 +2500,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -2520,10 +2523,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -2543,10 +2546,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -2566,10 +2569,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2589,10 +2592,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2601,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2612,10 +2615,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2624,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2635,10 +2638,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -2647,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2658,10 +2661,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -2670,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2681,10 +2684,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -2704,10 +2707,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -2719,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -2727,45 +2730,45 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
@@ -2773,10 +2776,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -2796,33 +2799,33 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -2842,10 +2845,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2854,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2865,22 +2868,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>12</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -2888,22 +2891,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -2911,10 +2914,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -2934,10 +2937,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -2946,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -2957,10 +2960,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -2969,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -2980,10 +2983,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -3003,10 +3006,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -3018,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -3026,10 +3029,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -3041,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -3049,10 +3052,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -3061,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3072,10 +3075,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -3084,10 +3087,10 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -3095,10 +3098,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -3107,10 +3110,10 @@
         <v>2</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -3118,10 +3121,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -3141,10 +3144,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -3164,10 +3167,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -3187,10 +3190,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -3210,10 +3213,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -3233,10 +3236,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -3245,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3256,10 +3259,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -3271,7 +3274,7 @@
         <v>8</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -3279,10 +3282,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -3294,7 +3297,7 @@
         <v>8</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -3302,10 +3305,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -3325,10 +3328,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3348,10 +3351,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3371,10 +3374,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -3394,22 +3397,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -3417,10 +3420,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -3432,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -3440,33 +3443,33 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -3486,22 +3489,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -3509,10 +3512,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3532,10 +3535,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3555,10 +3558,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3578,10 +3581,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3601,10 +3604,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3616,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -3624,10 +3627,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3647,10 +3650,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3670,10 +3673,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3693,10 +3696,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3708,16 +3711,40 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>110</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F1:G72 A1:C128 F78:G128 F77 F76 F75 F74 F73" numberStoredAsText="1"/>
+    <ignoredError sqref="F3:G73 A3:C129 F79:G129 F74:F78 A1:C1 F1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>